--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sang\Project02\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkdrb\OneDrive\문서\GitHub\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BD6B4C-70E1-4ACE-8220-26EE97621E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE351A29-5164-426F-8A2B-2F76AD7FEE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,88 +48,6 @@
   </si>
   <si>
     <t>iId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:main:Explanation3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="새굴림"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>実力</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>だけではなく</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>タイミング良く投げられるかが勝利のカギ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>not only skills
-Being able to throw with good timing is the key to victory!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실력뿐만 아니라
-타이밍 좋게 던질 수 있는지가
-승리의 열쇠!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -289,12 +207,56 @@
     <t>Exit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;파이어볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n캐릭터 진행 방향으로 파이어볼을 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;FireBall&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(range damage)&lt;/size&gt;\n\nFires a fireball in the direction the character is moving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:fireball0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:fireball1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$"&lt;size=120%&gt;&lt;#E7E7E7&gt;파이어볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;Level {Player.Instance.fireBallLevel} -&gt; &lt;#3EFF3E&gt;{Player.Instance.fireBallLevel+1}&lt;/color&gt;&lt;/size&gt;\n\n공격력 {curPower} -&gt; &lt;#3EFF3E&gt;{nextPower}&lt;/color&gt;\n공격속도 {curCooldown} -&gt; &lt;#3EFF3E&gt;{nextCooldown}&lt;/color&gt;"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$"&lt;size=120%&gt;&lt;#E7E7E7&gt;파이어볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;Level {Player.Instance.fireBallLevel} -&gt; &lt;#3EFF3E&gt;{Player.Instance.fireBallLevel+1}&lt;/color&gt;&lt;/size&gt;\n\n공격력 {curPower} -&gt; &lt;#3EFF3E&gt;{nextPower}&lt;/color&gt;\n공격속도 {curCooldown} -&gt; &lt;#3EFF3E&gt;{nextCooldown}&lt;/color&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,26 +270,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="새굴림"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -366,12 +308,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -654,20 +599,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="58.25" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="47.75" customWidth="1"/>
+    <col min="4" max="4" width="49.875" customWidth="1"/>
+    <col min="5" max="5" width="50.25" customWidth="1"/>
+    <col min="6" max="6" width="50.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -690,24 +635,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -715,39 +660,39 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
         <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -755,59 +700,59 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="51" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -815,19 +760,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -835,19 +780,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -855,19 +800,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -875,22 +820,65 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
+    <sortCondition ref="A2:A13"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkdrb\OneDrive\문서\GitHub\Project02_2\DataBase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE351A29-5164-426F-8A2B-2F76AD7FEE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A9EC17-E16B-4C0E-81CC-A6D869ADD340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:fireball0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파이어볼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,15 +236,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:skill:explanation:fireball1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$"&lt;size=120%&gt;&lt;#E7E7E7&gt;파이어볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;Level {Player.Instance.fireBallLevel} -&gt; &lt;#3EFF3E&gt;{Player.Instance.fireBallLevel+1}&lt;/color&gt;&lt;/size&gt;\n\n공격력 {curPower} -&gt; &lt;#3EFF3E&gt;{nextPower}&lt;/color&gt;\n공격속도 {curCooldown} -&gt; &lt;#3EFF3E&gt;{nextCooldown}&lt;/color&gt;"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$"&lt;size=120%&gt;&lt;#E7E7E7&gt;파이어볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;Level {Player.Instance.fireBallLevel} -&gt; &lt;#3EFF3E&gt;{Player.Instance.fireBallLevel+1}&lt;/color&gt;&lt;/size&gt;\n\n공격력 {curPower} -&gt; &lt;#3EFF3E&gt;{nextPower}&lt;/color&gt;\n공격속도 {curCooldown} -&gt; &lt;#3EFF3E&gt;{nextCooldown}&lt;/color&gt;</t>
+    <t>game:skill:explanation:fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>asd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +594,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -720,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -735,7 +727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -743,16 +735,16 @@
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -766,13 +758,13 @@
         <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A9EC17-E16B-4C0E-81CC-A6D869ADD340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB33367A-9F90-4B30-BD46-7E1CFD6C90DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,31 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한국어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>韓国</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>語</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日本語</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,10 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:main:korean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:main:english</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -240,7 +211,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asd</t>
+    <t>game:ui:progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:guidetext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로는 갈수 없습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can't go back!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +589,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -632,19 +627,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -652,19 +647,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -672,19 +667,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -692,19 +687,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -712,19 +707,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -732,19 +727,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -752,19 +747,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -772,19 +767,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -792,19 +787,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -812,19 +807,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -832,19 +827,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -852,19 +847,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB33367A-9F90-4B30-BD46-7E1CFD6C90DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C2D352-F5E0-4218-AFE9-CF63567F8EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;FireBall&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(range damage)&lt;/size&gt;\n\nFires a fireball in the direction the character is moving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:fireball</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +232,42 @@
   </si>
   <si>
     <t>You can't go back!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토네이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;토네이도&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기)&lt;/size&gt;\n\n캐릭터 진행 방향으로 적을 밀쳐내는 토네이도를 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Tornado&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back)&lt;/size&gt;\n\nThrows a tornado that pushes enemies in the direction the character is moving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;FireBall&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage)&lt;/size&gt;\n\nFires a fireball in the direction the character is moving.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -707,7 +739,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -719,27 +751,27 @@
         <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -747,19 +779,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -767,19 +799,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -787,19 +819,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -807,19 +839,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -827,19 +859,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -847,24 +879,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
-    <sortCondition ref="A2:A13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A15">
+    <sortCondition ref="A2:A15"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C2D352-F5E0-4218-AFE9-CF63567F8EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5181A7F1-B9D0-413C-B1DF-143CF0239FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27135" yWindow="930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,67 +207,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:guidetext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로는 갈수 없습니다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can't go back!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토네이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;토네이도&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기)&lt;/size&gt;\n\n캐릭터 진행 방향으로 적을 밀쳐내는 토네이도를 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Tornado&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back)&lt;/size&gt;\n\nThrows a tornado that pushes enemies in the direction the character is moving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;FireBall&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage)&lt;/size&gt;\n\nFires a fireball in the direction the character is moving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:blackhole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;블랙홀&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기+)&lt;/size&gt;\n\n캐릭터 진행 방향으로 적을 끌어당기는 블랙홀을 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:blackhole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙홀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;BlackHole&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back+)&lt;/size&gt;\n\nThrows a black hole that pulls enemies in the direction the character is moving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackHole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>game:ui:progress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유아이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진행률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Progress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:ui:guidetext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤로는 갈수 없습니다!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>You can't go back!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:tornado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토네이도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tornado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:tornado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;토네이도&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기)&lt;/size&gt;\n\n캐릭터 진행 방향으로 적을 밀쳐내는 토네이도를 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Tornado&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back)&lt;/size&gt;\n\nThrows a tornado that pushes enemies in the direction the character is moving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;FireBall&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage)&lt;/size&gt;\n\nFires a fireball in the direction the character is moving.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -751,7 +787,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -759,44 +795,44 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
@@ -816,127 +852,167 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A15">
-    <sortCondition ref="A2:A15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A17">
+    <sortCondition ref="A2:A17"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5181A7F1-B9D0-413C-B1DF-143CF0239FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A3689B-3D9B-4BDC-AEC5-42295F410F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27135" yWindow="930" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -275,10 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;블랙홀&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기+)&lt;/size&gt;\n\n캐릭터 진행 방향으로 적을 끌어당기는 블랙홀을 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:blackhole</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,10 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;BlackHole&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back+)&lt;/size&gt;\n\nThrows a black hole that pulls enemies in the direction the character is moving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BlackHole</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,6 +296,14 @@
   </si>
   <si>
     <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;블랙홀&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기+)&lt;/size&gt;\n\n캐릭터 진행 방향으로 적을 끌어당기는 블랙홀을 날린다.\n&lt;size=85%&gt;(공격속도 매우빠름!)&lt;/size&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;BlackHole&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back+)&lt;/size&gt;\n\nThrows a black hole that pulls enemies in the direction the character is moving.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +657,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -810,7 +810,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -821,13 +821,13 @@
         <v>61</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -875,19 +875,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
         <v>63</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -915,10 +915,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>46</v>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A3689B-3D9B-4BDC-AEC5-42295F410F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5579F34-4A54-4500-811D-585C40033F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;파이어볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n캐릭터 진행 방향으로 파이어볼을 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:fireball</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,18 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;토네이도&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기)&lt;/size&gt;\n\n캐릭터 진행 방향으로 적을 밀쳐내는 토네이도를 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Tornado&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back)&lt;/size&gt;\n\nThrows a tornado that pushes enemies in the direction the character is moving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;FireBall&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage)&lt;/size&gt;\n\nFires a fireball in the direction the character is moving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:explanation:blackhole</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,11 +283,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;블랙홀&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기+)&lt;/size&gt;\n\n캐릭터 진행 방향으로 적을 끌어당기는 블랙홀을 날린다.\n&lt;size=85%&gt;(공격속도 매우빠름!)&lt;/size&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;BlackHole&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back+)&lt;/size&gt;\n\nThrows a black hole that pulls enemies in the direction the character is moving.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
+    <t>game:skill:explanation:sawblade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;FireBall&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage)&lt;/size&gt;\n\nFires a fireball in the direction the player is moving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Tornado&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back)&lt;/size&gt;\n\nThrows a tornado that pushes enemies in the direction the player is moving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;BlackHole&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back+)&lt;/size&gt;\n\nThrows a black hole that pulls enemies in the direction the player is moving.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;파이어볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n플레이어 진행 방향으로 파이어볼을 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:sawblade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톱니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SawBlade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;SawBlade&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(revolution)&lt;/size&gt;\n\nadded saw blades that orbit the player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;토네이도&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 밀쳐내는 토네이도를 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;블랙홀&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기+)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 끌어당기는 블랙홀을 날린다.\n&lt;size=85%&gt;(공격속도 매우빠름!)&lt;/size&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;톱니&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(공전)&lt;/size&gt;\n\n플레이어 주위를 돌아다니는 톱니가 생긴다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -770,24 +802,24 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -795,19 +827,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -815,39 +847,39 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -855,19 +887,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -875,19 +907,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -895,19 +927,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -915,19 +947,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -935,19 +967,19 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -955,19 +987,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -975,19 +1007,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -995,24 +1027,64 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A17">
-    <sortCondition ref="A2:A17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A19">
+    <sortCondition ref="A2:A19"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5579F34-4A54-4500-811D-585C40033F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C076D5F-9EB9-492F-8DF6-E12DB8E038E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,14 +295,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Tornado&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back)&lt;/size&gt;\n\nThrows a tornado that pushes enemies in the direction the player is moving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;BlackHole&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back+)&lt;/size&gt;\n\nThrows a black hole that pulls enemies in the direction the player is moving.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;파이어볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n플레이어 진행 방향으로 파이어볼을 날린다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,19 +315,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;SawBlade&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(revolution)&lt;/size&gt;\n\nadded saw blades that orbit the player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;토네이도&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 밀쳐내는 토네이도를 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;블랙홀&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기+)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 끌어당기는 블랙홀을 날린다.\n&lt;size=85%&gt;(공격속도 매우빠름!)&lt;/size&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;톱니&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(공전)&lt;/size&gt;\n\n플레이어 주위를 돌아다니는 톱니가 생긴다.</t>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;톱니&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(공전)&lt;/size&gt;\n\n플레이어 주위를 돌아다니는 톱니가 생긴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;SawBlade&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(revolution)&lt;/size&gt;\n\nadded saw blades that orbit the player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;토네이도&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 밀쳐내는 토네이도를 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Tornado&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back)&lt;/size&gt;\n\nThrows a tornado that pushes enemies in the direction the player is moving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;블랙홀&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기+)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 끌어당기는 블랙홀을 날린다.\n&lt;size=85%&gt;(공격속도 매우빠름!)&lt;/size&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;BlackHole&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back+)&lt;/size&gt;\n\nThrows a black hole that pulls enemies in the direction the player is moving.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,7 +689,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -813,10 +813,10 @@
         <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>66</v>
@@ -833,13 +833,13 @@
         <v>55</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -859,7 +859,7 @@
         <v>76</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -873,13 +873,13 @@
         <v>65</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -947,19 +947,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C076D5F-9EB9-492F-8DF6-E12DB8E038E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FF37A9-FD34-4934-8493-CF576D043BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,70 @@
   </si>
   <si>
     <t>&lt;size=120%&gt;&lt;#FFFF32&gt;BlackHole&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back+)&lt;/size&gt;\n\nThrows a black hole that pulls enemies in the direction the player is moving.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향키를  이용해서  상점으로  들어가세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use  the  arrow  keys  to  enter  the  shop!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:payment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payment   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:acquisition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acquisition   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용한 금화   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아몬드 획득   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 방문 횟수   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:progresstext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행률   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progress   :</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -844,7 +908,7 @@
     </row>
     <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -864,7 +928,7 @@
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -884,7 +948,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
@@ -904,7 +968,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -924,7 +988,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -944,7 +1008,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -964,7 +1028,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
@@ -984,7 +1048,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>62</v>
@@ -1004,87 +1068,187 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A19">
-    <sortCondition ref="A2:A19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A24">
+    <sortCondition ref="A2:A24"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FF37A9-FD34-4934-8493-CF576D043BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C00D68-AF46-4A7F-957D-654331029AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -753,7 +753,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C00D68-AF46-4A7F-957D-654331029AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D997CB-6DE6-4D8F-992C-E47C01814333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,6 +400,58 @@
   </si>
   <si>
     <t>Progress   :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:setup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:diamondstore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:achievement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Achievement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크레딧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,10 +802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1171,19 +1223,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1191,19 +1243,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1211,19 +1263,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1231,24 +1283,104 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A24">
-    <sortCondition ref="A2:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A28">
+    <sortCondition ref="A2:A28"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D997CB-6DE6-4D8F-992C-E47C01814333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62451BF6-31B1-4FCB-A5EB-65C0E1B4BB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="112">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,18 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日本語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일본어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Japanese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>영어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,34 +63,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:main:english</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:main:japanese</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:main:language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>언어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>言語</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:aquarium:buy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,10 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:ui:achievement</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,6 +420,56 @@
   </si>
   <si>
     <t>Credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:store:power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격력을 강화 합니다.</t>
+  </si>
+  <si>
+    <t>Increases basic attack power.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:store:health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력을 증가시킵니다.</t>
+  </si>
+  <si>
+    <t>최대 체력을 증가시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Increases maximum health.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -802,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -843,19 +861,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -863,19 +881,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -883,19 +901,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -903,19 +921,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -923,19 +941,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -943,19 +961,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -963,19 +981,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -983,19 +1001,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1003,19 +1021,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1023,19 +1041,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1043,19 +1061,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1063,19 +1081,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1083,19 +1101,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1103,19 +1121,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1123,19 +1141,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1143,19 +1161,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1163,19 +1181,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1183,19 +1201,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1203,19 +1221,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1223,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1243,19 +1261,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1263,19 +1281,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1283,19 +1301,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1303,19 +1321,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1323,19 +1341,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1343,19 +1361,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1363,24 +1381,64 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>23</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A28">
-    <sortCondition ref="A2:A28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A30">
+    <sortCondition ref="A2:A30"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62451BF6-31B1-4FCB-A5EB-65C0E1B4BB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C112D299-EAF5-4113-9656-054F605337CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -470,6 +470,31 @@
   </si>
   <si>
     <t>Increases maximum health.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start with more money.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 많은 돈을 가지고 시작 합니다.</t>
+  </si>
+  <si>
+    <t>더 많은 돈을 가지고 시작 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:store:startgold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eating potions recovers more.</t>
+  </si>
+  <si>
+    <t>포션을 먹으면 더 많이 회복합니다.</t>
+  </si>
+  <si>
+    <t>game:main:store:potion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,9 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1361,19 +1387,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1381,19 +1407,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1401,19 +1427,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1421,24 +1447,64 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A30">
-    <sortCondition ref="A2:A30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A32">
+    <sortCondition ref="A2:A32"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C112D299-EAF5-4113-9656-054F605337CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0330FA1F-8959-43CE-A88D-CA6E0485D4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="125">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,26 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:aquarium:buy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>購入しますか？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매하시겠습니까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Purchase?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:shop:title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,6 +475,48 @@
   </si>
   <si>
     <t>game:main:store:potion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:achievement:pig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지 1000마리 잡기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill 1000 Pigs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:achievement:try</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세 번 도전하기!</t>
+  </si>
+  <si>
+    <t>세 번 도전하기!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Try three times.</t>
+  </si>
+  <si>
+    <t>game:button:retry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재도전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,10 +868,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -887,19 +909,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -907,19 +929,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -927,19 +949,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -947,39 +969,39 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>60</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -987,79 +1009,79 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1067,19 +1089,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1087,19 +1109,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1107,19 +1129,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1127,19 +1149,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1147,19 +1169,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1167,19 +1189,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1187,19 +1209,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1207,19 +1229,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1227,19 +1249,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1247,19 +1269,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1267,19 +1289,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1287,19 +1309,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1307,19 +1329,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1327,19 +1349,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1347,19 +1369,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1367,19 +1389,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1387,19 +1409,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1407,19 +1429,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1427,19 +1449,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1447,19 +1469,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1467,19 +1489,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1487,24 +1509,64 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A32">
-    <sortCondition ref="A2:A32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">
+    <sortCondition ref="A2:A34"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0330FA1F-8959-43CE-A88D-CA6E0485D4D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8DD368-9097-4C85-B4CF-D64FBD89DC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="132">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,6 +517,34 @@
   </si>
   <si>
     <t>Retry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:button:startgame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startgame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:button:quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -868,10 +896,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1004,124 +1032,124 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>125</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1129,19 +1157,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1149,19 +1177,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1169,19 +1197,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1189,19 +1217,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1209,19 +1237,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1229,19 +1257,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1249,19 +1277,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1269,19 +1297,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1289,19 +1317,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1309,19 +1337,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1329,19 +1357,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1349,19 +1377,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
         <v>83</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1369,19 +1397,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
         <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1389,19 +1417,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1409,19 +1437,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1429,19 +1457,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1449,19 +1477,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1469,19 +1497,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1489,19 +1517,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1509,19 +1537,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1529,19 +1557,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>115</v>
+        <v>6</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1549,24 +1577,64 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>117</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>118</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F36" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A34">
-    <sortCondition ref="A2:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A36">
+    <sortCondition ref="A2:A36"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8DD368-9097-4C85-B4CF-D64FBD89DC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7232F77C-CDB6-4288-AB01-5B82A83FF322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="143">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,6 +545,50 @@
   </si>
   <si>
     <t>Quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:pause:title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:button:menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:button:resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resume</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -896,7 +940,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -957,19 +1001,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -977,19 +1021,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -997,19 +1041,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1017,19 +1061,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1037,19 +1081,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1057,159 +1101,159 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
         <v>125</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>55</v>
+        <v>125</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>137</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>137</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1217,19 +1261,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1237,19 +1281,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1257,19 +1301,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1277,19 +1321,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1297,19 +1341,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1317,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1337,19 +1381,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1357,19 +1401,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1377,19 +1421,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1397,19 +1441,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1417,19 +1461,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1437,19 +1481,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
         <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1457,19 +1501,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1477,19 +1521,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1497,19 +1541,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1517,19 +1561,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1537,19 +1581,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1557,19 +1601,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1577,19 +1621,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1597,19 +1641,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>115</v>
+        <v>6</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1617,24 +1661,84 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>117</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" t="s">
         <v>118</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D39" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F39" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A36">
-    <sortCondition ref="A2:A36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A39">
+    <sortCondition ref="A2:A39"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7232F77C-CDB6-4288-AB01-5B82A83FF322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31308E3B-5F6A-46CA-8E5A-88F373F293F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,6 +589,18 @@
   </si>
   <si>
     <t>Resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:stage:clear:congratulations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축하합니다 !</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,16 +952,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="49.875" customWidth="1"/>
     <col min="5" max="5" width="50.25" customWidth="1"/>
@@ -1641,19 +1653,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1661,19 +1673,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1681,19 +1693,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1701,19 +1713,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>115</v>
+        <v>6</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1721,24 +1733,44 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>118</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>119</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>121</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A39">
-    <sortCondition ref="A2:A39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A40">
+    <sortCondition ref="A2:A40"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31308E3B-5F6A-46CA-8E5A-88F373F293F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655FA950-E8CE-429C-98D6-5F5AB889F404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;FireBall&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage)&lt;/size&gt;\n\nFires a fireball in the direction the player is moving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;파이어볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n플레이어 진행 방향으로 파이어볼을 날린다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,26 +267,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;SawBlade&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(revolution)&lt;/size&gt;\n\nadded saw blades that orbit the player</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;size=120%&gt;&lt;#32FFC8&gt;토네이도&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 밀쳐내는 토네이도를 날린다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Tornado&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back)&lt;/size&gt;\n\nThrows a tornado that pushes enemies in the direction the player is moving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;size=120%&gt;&lt;#FFFF32&gt;블랙홀&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기+)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 끌어당기는 블랙홀을 날린다.\n&lt;size=85%&gt;(공격속도 매우빠름!)&lt;/size&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;BlackHole&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Range Damage,Knock-Back+)&lt;/size&gt;\n\nThrows a black hole that pulls enemies in the direction the player is moving.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:ui:information</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,6 +585,38 @@
   </si>
   <si>
     <t>축하합니다 !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:spark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;스파크&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(단일데미지)&lt;/size&gt;\n\n플레이어 진행 방향으로 아주 빠르게 스파크를 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;FireBall&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage)&lt;/size&gt;\n\nFires a fireball in the direction the player is moving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Tornado&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,Knock-Back)&lt;/size&gt;\n\nThrows a tornado that pushes enemies in the direction the player is moving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;BlackHole&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,Knock-Back+)&lt;/size&gt;\n\nThrows a black hole that pulls enemies in the direction the player is moving.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Spark&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Direct Hit)&lt;/size&gt;\n\nThe player rapidly shoots sparks in the direction of movement.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;SawBlade&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(revolution)&lt;/size&gt;\n\nadded saw blades that orbit the player.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,10 +968,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1013,19 +1029,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1093,19 +1109,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1113,19 +1129,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1133,19 +1149,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1153,19 +1169,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1173,19 +1189,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1199,13 +1215,13 @@
         <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1219,13 +1235,13 @@
         <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -1239,13 +1255,13 @@
         <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1259,33 +1275,33 @@
         <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1293,19 +1309,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1313,19 +1329,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1333,19 +1349,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1353,19 +1369,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1373,19 +1389,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1393,19 +1409,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1413,19 +1429,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1433,19 +1449,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1453,19 +1469,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1473,19 +1489,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1493,19 +1509,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1513,19 +1529,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1533,19 +1549,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1553,19 +1569,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1573,19 +1589,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1593,19 +1609,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1613,19 +1629,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1633,19 +1649,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1653,19 +1669,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1673,19 +1689,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1693,19 +1709,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1713,19 +1729,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1733,19 +1749,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>115</v>
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1753,24 +1769,44 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41" t="s">
         <v>117</v>
       </c>
-      <c r="C40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" t="s">
-        <v>121</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A40">
-    <sortCondition ref="A2:A40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A41">
+    <sortCondition ref="A2:A41"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655FA950-E8CE-429C-98D6-5F5AB889F404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DB80B3-5CB4-4F2B-9632-C688EC84FC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="161">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,14 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>파이어볼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:explanation:fireball</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;파이어볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n플레이어 진행 방향으로 파이어볼을 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:sawblade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,10 +588,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;FireBall&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage)&lt;/size&gt;\n\nFires a fireball in the direction the player is moving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Tornado&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,Knock-Back)&lt;/size&gt;\n\nThrows a tornado that pushes enemies in the direction the player is moving.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,6 +601,65 @@
   </si>
   <si>
     <t>&lt;size=120%&gt;&lt;#32FFC8&gt;SawBlade&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(revolution)&lt;/size&gt;\n\nadded saw blades that orbit the player.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:waveenergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;파이어 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n플레이어 진행 방향으로 파이어볼을 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;에너지 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(관통)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 관통하는 에너지 볼 을 날린다.</t>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;에너지 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(관통)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 관통하는 에너지 볼 을 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Fire Ball&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage)&lt;/size&gt;\n\nFires a fireball in the direction the player is moving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:spark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:waveenergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지 볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Energy Ball&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Penetrate)&lt;/size&gt;\n\nLaunch an energy ball that penetrates through enemies.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -968,10 +1011,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1029,19 +1072,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" t="s">
         <v>128</v>
-      </c>
-      <c r="C3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1109,19 +1152,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1129,19 +1172,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1149,19 +1192,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1169,19 +1212,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1189,19 +1232,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1209,19 +1252,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1229,19 +1272,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -1249,19 +1292,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1269,19 +1312,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1289,39 +1332,39 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1329,19 +1372,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1349,19 +1392,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1369,19 +1412,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1389,19 +1432,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1409,19 +1452,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>152</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>34</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1429,19 +1472,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>64</v>
+        <v>152</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>157</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1449,19 +1492,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1469,19 +1512,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1489,19 +1532,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1509,19 +1552,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1529,19 +1572,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1549,19 +1592,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1569,19 +1612,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1589,19 +1632,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1609,19 +1652,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1629,19 +1672,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1649,19 +1692,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1669,19 +1712,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1689,19 +1732,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1709,19 +1752,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1729,19 +1772,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1749,19 +1792,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1769,19 +1812,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>111</v>
+        <v>6</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1789,24 +1832,84 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C41" t="s">
+      <c r="F44" t="s">
         <v>114</v>
       </c>
-      <c r="D41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F41" t="s">
-        <v>117</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A41">
-    <sortCondition ref="A2:A41"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A44">
+    <sortCondition ref="A2:A44"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DB80B3-5CB4-4F2B-9632-C688EC84FC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8E9B84-1568-41D0-A43A-71FD02E35A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="174">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,6 +660,56 @@
   </si>
   <si>
     <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Energy Ball&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Penetrate)&lt;/size&gt;\n\nLaunch an energy ball that penetrates through enemies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:stage:item:bossdistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스와의 거리</t>
+  </si>
+  <si>
+    <t>보스와의 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance from the boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clairvoyant</t>
+  </si>
+  <si>
+    <t>천리안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:clairvoyant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;천리안&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n보스와 플레이어 사이의 거리를 알려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Clairvoyant&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nIndicates the distance between the boss and the player.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:clairvoyant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +717,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,6 +748,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF292C32"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -719,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -730,6 +786,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1011,10 +1068,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1367,24 +1424,24 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1392,19 +1449,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1412,19 +1469,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1432,19 +1489,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1452,19 +1509,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1472,19 +1529,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
         <v>152</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1492,19 +1549,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>152</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1512,19 +1569,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>169</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>32</v>
+        <v>167</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1532,19 +1589,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1552,19 +1609,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1572,19 +1629,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1592,19 +1649,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1612,19 +1669,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>30</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1632,19 +1689,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1652,19 +1709,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1672,19 +1729,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
         <v>76</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1692,19 +1749,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C34" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1712,19 +1769,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1732,19 +1789,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1752,19 +1809,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1772,19 +1829,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1792,19 +1849,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
         <v>30</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1812,19 +1869,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1832,19 +1889,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1852,19 +1909,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1872,19 +1929,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>108</v>
+        <v>6</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1892,24 +1949,84 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>110</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C47" t="s">
         <v>111</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D47" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F47" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A44">
-    <sortCondition ref="A2:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A47">
+    <sortCondition ref="A2:A47"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8E9B84-1568-41D0-A43A-71FD02E35A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7A31CB-FCB6-4026-945C-37ECA956D5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="181">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,18 +243,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>톱니</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SawBlade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;톱니&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(공전)&lt;/size&gt;\n\n플레이어 주위를 돌아다니는 톱니가 생긴다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;size=120%&gt;&lt;#32FFC8&gt;토네이도&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 밀쳐내는 토네이도를 날린다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,10 +592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;SawBlade&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(revolution)&lt;/size&gt;\n\nadded saw blades that orbit the player.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:explanation:waveenergy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,6 +698,46 @@
   </si>
   <si>
     <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;볼케이노&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n일정 범위 안에 적이 있으면 볼케이노를 소환한다.\n&lt;size=85%&gt;(공격속도 매우빠름!)&lt;/size&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:volcano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Volcano&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage)&lt;/size&gt;\n\nIf there are enemies within a certain range, summon a volcano.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:volcano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼케이노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volcano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;SawBlade&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(revolution)&lt;/size&gt;\n\nadded saw blades that orbit the player.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톱날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;톱날&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(공전)&lt;/size&gt;\n\n플레이어 주위를 돌아다니는 톱니가 생긴다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1129,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
         <v>125</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
         <v>126</v>
-      </c>
-      <c r="D3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1209,19 +1237,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1229,19 +1257,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1249,19 +1277,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1269,19 +1297,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1289,19 +1317,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1315,13 +1343,13 @@
         <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1335,13 +1363,13 @@
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -1355,13 +1383,13 @@
         <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1375,13 +1403,13 @@
         <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>56</v>
+        <v>180</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1389,19 +1417,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1409,19 +1437,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1429,39 +1457,39 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1469,19 +1497,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1489,19 +1517,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1509,19 +1537,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1529,19 +1557,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>155</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1549,19 +1577,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1569,19 +1597,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>166</v>
+        <v>154</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1589,19 +1617,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>166</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>35</v>
+        <v>164</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1609,19 +1637,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>175</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>32</v>
+        <v>176</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1629,19 +1657,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1649,19 +1677,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1669,19 +1697,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1689,19 +1717,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1709,19 +1737,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1729,19 +1757,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1749,19 +1777,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1769,19 +1797,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1789,19 +1817,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1809,19 +1837,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1829,19 +1857,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1849,19 +1877,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1869,19 +1897,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1889,19 +1917,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1909,19 +1937,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s">
-        <v>162</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1929,19 +1957,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1949,19 +1977,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1969,19 +1997,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1989,19 +2017,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>108</v>
+        <v>6</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2009,24 +2037,64 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
         <v>110</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D47" t="s">
+      <c r="F49" t="s">
         <v>112</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" t="s">
-        <v>114</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A47">
-    <sortCondition ref="A2:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A49">
+    <sortCondition ref="A2:A49"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7A31CB-FCB6-4026-945C-37ECA956D5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40D1148-1524-4844-A584-EA1783E4BE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="189">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -701,18 +701,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;볼케이노&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n일정 범위 안에 적이 있으면 볼케이노를 소환한다.\n&lt;size=85%&gt;(공격속도 매우빠름!)&lt;/size&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:explanation:volcano</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Volcano&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage)&lt;/size&gt;\n\nIf there are enemies within a certain range, summon a volcano.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>game:skill:name:volcano</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -738,6 +730,46 @@
   </si>
   <si>
     <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;톱날&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(공전)&lt;/size&gt;\n\n플레이어 주위를 돌아다니는 톱니가 생긴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:trident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:trident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼지창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;볼케이노&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,소환)&lt;/size&gt;\n\n일정 범위 안에 적이 있으면 볼케이노를 소환한다.\n&lt;size=85%&gt;(공격속도 매우빠름!)&lt;/size&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Volcano&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,summon)&lt;/size&gt;\n\nIf there are enemies within a certain range, summon a volcano.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;삼지창&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,소환)&lt;/size&gt;\n\n일정 범위 안에 적이 있으면 삼지창을 소환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Trident&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,summon)&lt;/size&gt;\n\nIf there are enemies within a certain range, summon a Trident.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1096,10 +1128,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1403,13 +1435,13 @@
         <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1477,39 +1509,39 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1517,19 +1549,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1537,19 +1569,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1557,19 +1589,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1577,19 +1609,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1597,19 +1629,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
         <v>149</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1617,19 +1649,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1637,19 +1669,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1657,19 +1689,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>173</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>35</v>
+        <v>174</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1677,19 +1709,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>182</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>32</v>
+        <v>183</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1697,19 +1729,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1717,19 +1749,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1737,19 +1769,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1757,19 +1789,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1777,19 +1809,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1797,19 +1829,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1817,19 +1849,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1837,19 +1869,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1857,19 +1889,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
         <v>74</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1877,19 +1909,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1897,19 +1929,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1917,19 +1949,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1937,19 +1969,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1957,19 +1989,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
         <v>30</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1977,19 +2009,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1997,19 +2029,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2017,19 +2049,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2037,19 +2069,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2057,19 +2089,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2077,24 +2109,64 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>108</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C51" t="s">
         <v>109</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D51" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F51" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A49">
-    <sortCondition ref="A2:A49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A51">
+    <sortCondition ref="A2:A51"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40D1148-1524-4844-A584-EA1783E4BE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C6D947-14E0-4FC6-9EF0-74FBF74662D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="198">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -770,6 +770,41 @@
   </si>
   <si>
     <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Trident&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,summon)&lt;/size&gt;\n\nIf there are enemies within a certain range, summon a Trident.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;신속&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n플레이어의 이동속도를 증가 시킨다.</t>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;신속&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n플레이어의 이동속도를 증가 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:quickness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Quickness&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nIncreases the player's movement speed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quickness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:quickness</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1128,10 +1163,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1544,24 +1579,24 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1569,19 +1604,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1589,19 +1624,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1609,19 +1644,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1629,19 +1664,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1649,19 +1684,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
         <v>149</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1669,19 +1704,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1689,19 +1724,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C28" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1709,19 +1744,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1729,19 +1764,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>182</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>35</v>
+        <v>183</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1749,19 +1784,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>192</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>32</v>
+        <v>193</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1769,19 +1804,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1789,19 +1824,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1809,19 +1844,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1829,19 +1864,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1849,19 +1884,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1869,19 +1904,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1889,19 +1924,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1909,19 +1944,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
         <v>74</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1929,19 +1964,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
         <v>74</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1949,19 +1984,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1969,19 +2004,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1989,19 +2024,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2009,19 +2044,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
         <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2029,19 +2064,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2049,19 +2084,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2069,19 +2104,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2089,19 +2124,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2109,19 +2144,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2129,19 +2164,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2149,24 +2184,64 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>108</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C53" t="s">
         <v>109</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>110</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F53" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A51">
-    <sortCondition ref="A2:A51"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A53">
+    <sortCondition ref="A2:A53"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C6D947-14E0-4FC6-9EF0-74FBF74662D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57B498E-5049-4221-BF08-5D4C86C8D5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="206">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -805,6 +805,38 @@
   </si>
   <si>
     <t>game:skill:name:quickness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slowdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:slowdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;감속&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n보스의 이동속도를 감소 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Slowdown&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nReduces the boss's movement speed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:slowdown</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1163,10 +1195,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1599,24 +1631,24 @@
         <v>195</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1624,19 +1656,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1644,19 +1676,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1664,19 +1696,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1684,19 +1716,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1704,19 +1736,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
         <v>149</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1724,19 +1756,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1744,19 +1776,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1764,19 +1796,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1784,19 +1816,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1804,19 +1836,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>192</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>35</v>
+        <v>193</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1824,19 +1856,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>31</v>
+        <v>198</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>32</v>
+        <v>199</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1844,19 +1876,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1864,19 +1896,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1884,19 +1916,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1904,19 +1936,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
         <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1924,19 +1956,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1944,19 +1976,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1964,19 +1996,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1984,19 +2016,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
         <v>74</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2004,19 +2036,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2024,19 +2056,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2044,19 +2076,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2064,19 +2096,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2084,19 +2116,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2104,19 +2136,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2124,19 +2156,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2144,19 +2176,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2164,19 +2196,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2184,19 +2216,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2204,19 +2236,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2224,24 +2256,64 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
         <v>108</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C55" t="s">
         <v>109</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>110</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F55" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A53">
-    <sortCondition ref="A2:A53"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A55">
+    <sortCondition ref="A2:A55"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57B498E-5049-4221-BF08-5D4C86C8D5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5D5416-371F-4168-B3E3-A301E671ADE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="225">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -837,6 +837,82 @@
   </si>
   <si>
     <t>game:skill:name:slowdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:redraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:redraw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:redraw3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:redraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:redraw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:redraw3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Redraw&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Disposable)&lt;/size&gt;\n\nPay '50' gold and reset the store's inventory.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;다시뽑기&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(일회용)&lt;/size&gt;\n\n골드 '50'을 지불하고 상점 목록을 리셋 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;다시뽑기 2&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(일회용)&lt;/size&gt;\n\n골드 지불 없이 상점 목록을 리셋 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;다시뽑기 3&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(일회용)&lt;/size&gt;\n\n골드 '100'을 받고 상점 목록을 리셋 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Redraw 2&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Disposable)&lt;/size&gt;\n\nReset the store's inventory without paying any gold.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Redraw 3&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Disposable)&lt;/size&gt;\n\nReceive '100' gold and reset the store's inventory.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시뽑기 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시뽑기 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시뽑기 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redraw 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redraw 3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1195,10 +1271,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1651,64 +1727,64 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>206</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>47</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1716,19 +1792,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1736,19 +1812,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1756,19 +1832,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1776,19 +1852,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>53</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>163</v>
+        <v>177</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1796,19 +1872,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>175</v>
+        <v>150</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1816,19 +1892,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>184</v>
+        <v>154</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1836,19 +1912,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1856,19 +1932,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1876,19 +1952,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>182</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>35</v>
+        <v>183</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1896,19 +1972,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>31</v>
+        <v>192</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>32</v>
+        <v>193</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1916,19 +1992,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>59</v>
+        <v>198</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>60</v>
+        <v>199</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1936,19 +2012,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>71</v>
+        <v>212</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>72</v>
+        <v>21</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1956,19 +2032,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>65</v>
+        <v>212</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>62</v>
+        <v>222</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1976,19 +2052,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>66</v>
+        <v>212</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>64</v>
+        <v>221</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1996,19 +2072,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2016,19 +2092,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2036,19 +2112,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2056,19 +2132,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2076,19 +2152,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2096,19 +2172,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2116,19 +2192,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2136,19 +2212,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2156,19 +2232,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2176,19 +2252,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2196,19 +2272,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>162</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2216,19 +2292,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2236,19 +2312,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2256,19 +2332,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2276,19 +2352,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>106</v>
+        <v>30</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2296,24 +2372,144 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
         <v>108</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C61" t="s">
         <v>109</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D61" t="s">
         <v>110</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F61" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A55">
-    <sortCondition ref="A2:A55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A61">
+    <sortCondition ref="A2:A61"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5D5416-371F-4168-B3E3-A301E671ADE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454AC3CE-7B56-4E0B-9915-8AA776187490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="233">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -913,6 +913,38 @@
   </si>
   <si>
     <t>Redraw 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:regenerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:regenerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;체력 회복&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n10초마다 플레이어의 체력을 회복시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Regenerate&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nEvery 10 seconds, the player's health regenerates.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regenerate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,10 +1303,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1787,24 +1819,24 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>225</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>156</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1812,19 +1844,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1832,19 +1864,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1852,19 +1884,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1872,19 +1904,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>152</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1892,19 +1924,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
         <v>149</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1912,19 +1944,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1932,19 +1964,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1952,19 +1984,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1972,19 +2004,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C35" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1992,19 +2024,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2012,19 +2044,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2032,19 +2064,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C38" t="s">
         <v>212</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2052,19 +2084,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C39" t="s">
         <v>212</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2072,19 +2104,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>34</v>
+        <v>212</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>35</v>
+        <v>221</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2092,19 +2124,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>31</v>
+        <v>230</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>32</v>
+        <v>231</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2112,19 +2144,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2132,19 +2164,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2152,19 +2184,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2172,19 +2204,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
         <v>30</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2192,19 +2224,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
         <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2212,19 +2244,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2232,19 +2264,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2252,19 +2284,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2272,19 +2304,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
         <v>74</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2292,19 +2324,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2312,19 +2344,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2332,19 +2364,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2352,19 +2384,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2372,19 +2404,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2392,19 +2424,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2412,19 +2444,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2432,19 +2464,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2452,19 +2484,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2472,19 +2504,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2492,24 +2524,64 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
         <v>108</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C63" t="s">
         <v>109</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D63" t="s">
         <v>110</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F63" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A61">
-    <sortCondition ref="A2:A61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A63">
+    <sortCondition ref="A2:A63"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454AC3CE-7B56-4E0B-9915-8AA776187490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB440EFF-3149-4790-9924-FCC618DA5B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="240">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SawBlade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;size=120%&gt;&lt;#32FFC8&gt;토네이도&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,밀치기)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 밀쳐내는 토네이도를 날린다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -945,6 +941,38 @@
   </si>
   <si>
     <t>Regenerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:rageexplosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;분노 폭발&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n플레이어 주변에 파장을 일으킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Rage Explosion&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage)&lt;/size&gt;\n\nCreates a wave around the player.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:rageexplosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분노 폭발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rage Explosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sawblade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1303,10 +1331,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1364,19 +1392,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
         <v>123</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>124</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
         <v>125</v>
-      </c>
-      <c r="E3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1444,19 +1472,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1464,19 +1492,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1484,19 +1512,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1504,19 +1532,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
         <v>127</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1524,19 +1552,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1550,13 +1578,13 @@
         <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1570,13 +1598,13 @@
         <v>41</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -1590,13 +1618,13 @@
         <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1610,13 +1638,13 @@
         <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1624,19 +1652,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
         <v>137</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1644,19 +1672,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1664,19 +1692,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s">
         <v>169</v>
       </c>
-      <c r="C18" t="s">
-        <v>170</v>
-      </c>
       <c r="D18" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1684,19 +1712,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1704,19 +1732,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" t="s">
         <v>179</v>
       </c>
-      <c r="C20" t="s">
-        <v>180</v>
-      </c>
       <c r="D20" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1724,19 +1752,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="C21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1744,19 +1772,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1764,19 +1792,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1784,19 +1812,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1804,19 +1832,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1824,39 +1852,39 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>156</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1864,19 +1892,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1884,19 +1912,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1904,19 +1932,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1924,19 +1952,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>152</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1944,19 +1972,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1964,19 +1992,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>163</v>
+        <v>153</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1984,19 +2012,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2004,19 +2032,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2024,19 +2052,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2044,19 +2072,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2064,19 +2092,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2084,19 +2112,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2104,19 +2132,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" t="s">
         <v>211</v>
       </c>
-      <c r="C40" t="s">
-        <v>212</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>221</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2124,19 +2152,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2144,19 +2172,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>34</v>
+        <v>229</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>35</v>
+        <v>230</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2164,19 +2192,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>31</v>
+        <v>236</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>32</v>
+        <v>237</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2184,19 +2212,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2204,19 +2232,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2224,19 +2252,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2244,19 +2272,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2264,19 +2292,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
         <v>30</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2284,19 +2312,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2304,19 +2332,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2324,19 +2352,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2344,19 +2372,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2364,19 +2392,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2384,19 +2412,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2404,19 +2432,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2424,19 +2452,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2444,19 +2472,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2464,19 +2492,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2484,19 +2512,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2504,19 +2532,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>88</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2524,19 +2552,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2544,19 +2572,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>80</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2564,24 +2592,64 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" t="s">
         <v>108</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D65" t="s">
         <v>109</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E65" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F65" t="s">
         <v>111</v>
       </c>
-      <c r="F63" t="s">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A63">
-    <sortCondition ref="A2:A63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A65">
+    <sortCondition ref="A2:A65"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB440EFF-3149-4790-9924-FCC618DA5B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E087BC5-251A-4ACD-B2EC-B9337AEC2E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="256">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,533 +446,599 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>game:main:achievement:try</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:button:retry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재도전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:button:startgame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Startgame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:button:quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:pause:title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일시정지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:button:menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:button:resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:stage:clear:congratulations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축하합니다 !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:spark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;스파크&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(단일데미지)&lt;/size&gt;\n\n플레이어 진행 방향으로 아주 빠르게 스파크를 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Tornado&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,Knock-Back)&lt;/size&gt;\n\nThrows a tornado that pushes enemies in the direction the player is moving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;BlackHole&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,Knock-Back+)&lt;/size&gt;\n\nThrows a black hole that pulls enemies in the direction the player is moving.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Spark&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Direct Hit)&lt;/size&gt;\n\nThe player rapidly shoots sparks in the direction of movement.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:waveenergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;파이어 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n플레이어 진행 방향으로 파이어볼을 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;에너지 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(관통)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 관통하는 에너지 볼 을 날린다.</t>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;에너지 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(관통)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 관통하는 에너지 볼 을 날린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Fire Ball&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage)&lt;/size&gt;\n\nFires a fireball in the direction the player is moving.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:spark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스파크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이어 볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:waveenergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지 볼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Ball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Energy Ball&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Penetrate)&lt;/size&gt;\n\nLaunch an energy ball that penetrates through enemies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:stage:item:bossdistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스와의 거리</t>
+  </si>
+  <si>
+    <t>보스와의 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance from the boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clairvoyant</t>
+  </si>
+  <si>
+    <t>천리안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:clairvoyant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;천리안&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n보스와 플레이어 사이의 거리를 알려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Clairvoyant&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nIndicates the distance between the boss and the player.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:clairvoyant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:volcano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:volcano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>볼케이노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volcano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;SawBlade&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(revolution)&lt;/size&gt;\n\nadded saw blades that orbit the player.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>톱날</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;톱날&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(공전)&lt;/size&gt;\n\n플레이어 주위를 돌아다니는 톱니가 생긴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:trident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:trident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼지창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;볼케이노&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,소환)&lt;/size&gt;\n\n일정 범위 안에 적이 있으면 볼케이노를 소환한다.\n&lt;size=85%&gt;(공격속도 매우빠름!)&lt;/size&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Volcano&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,summon)&lt;/size&gt;\n\nIf there are enemies within a certain range, summon a volcano.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;삼지창&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,소환)&lt;/size&gt;\n\n일정 범위 안에 적이 있으면 삼지창을 소환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Trident&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,summon)&lt;/size&gt;\n\nIf there are enemies within a certain range, summon a Trident.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;신속&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n플레이어의 이동속도를 증가 시킨다.</t>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;신속&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n플레이어의 이동속도를 증가 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:quickness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Quickness&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nIncreases the player's movement speed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quickness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:quickness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slowdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:slowdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;감속&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n보스의 이동속도를 감소 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Slowdown&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nReduces the boss's movement speed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:slowdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:redraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:redraw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:redraw3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:redraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:redraw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:redraw3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Redraw&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Disposable)&lt;/size&gt;\n\nPay '50' gold and reset the store's inventory.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;다시뽑기&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(일회용)&lt;/size&gt;\n\n골드 '50'을 지불하고 상점 목록을 리셋 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;다시뽑기 2&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(일회용)&lt;/size&gt;\n\n골드 지불 없이 상점 목록을 리셋 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;다시뽑기 3&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(일회용)&lt;/size&gt;\n\n골드 '100'을 받고 상점 목록을 리셋 시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Redraw 2&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Disposable)&lt;/size&gt;\n\nReset the store's inventory without paying any gold.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Redraw 3&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Disposable)&lt;/size&gt;\n\nReceive '100' gold and reset the store's inventory.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시뽑기 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시뽑기 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시뽑기 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redraw 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redraw 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:regenerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:regenerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;체력 회복&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n10초마다 플레이어의 체력을 회복시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Regenerate&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nEvery 10 seconds, the player's health regenerates.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regenerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:rageexplosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;분노 폭발&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n플레이어 주변에 파장을 일으킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Rage Explosion&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage)&lt;/size&gt;\n\nCreates a wave around the player.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:rageexplosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분노 폭발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rage Explosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sawblade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:achievement:pig2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:achievement:pig3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Kill 1000 Pigs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>game:main:achievement:try</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세 번 도전하기!</t>
-  </si>
-  <si>
-    <t>세 번 도전하기!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Try three times.</t>
-  </si>
-  <si>
-    <t>game:button:retry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재도전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Retry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:button:startgame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startgame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:button:quit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:pause:title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이틀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일시정지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:button:menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:button:resume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:stage:clear:congratulations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Congratulations !</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>축하합니다 !</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:spark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;스파크&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(단일데미지)&lt;/size&gt;\n\n플레이어 진행 방향으로 아주 빠르게 스파크를 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Tornado&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,Knock-Back)&lt;/size&gt;\n\nThrows a tornado that pushes enemies in the direction the player is moving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;BlackHole&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,Knock-Back+)&lt;/size&gt;\n\nThrows a black hole that pulls enemies in the direction the player is moving.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Spark&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Direct Hit)&lt;/size&gt;\n\nThe player rapidly shoots sparks in the direction of movement.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:waveenergy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;파이어 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n플레이어 진행 방향으로 파이어볼을 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;에너지 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(관통)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 관통하는 에너지 볼 을 날린다.</t>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;에너지 볼&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(관통)&lt;/size&gt;\n\n플레이어 진행 방향으로 적을 관통하는 에너지 볼 을 날린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Fire Ball&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage)&lt;/size&gt;\n\nFires a fireball in the direction the player is moving.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:spark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스파크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파이어 볼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:waveenergy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에너지 볼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Energy Ball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire Ball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Energy Ball&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Penetrate)&lt;/size&gt;\n\nLaunch an energy ball that penetrates through enemies.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:stage:item:bossdistance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유아이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스와의 거리</t>
-  </si>
-  <si>
-    <t>보스와의 거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distance from the boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clairvoyant</t>
-  </si>
-  <si>
-    <t>천리안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:clairvoyant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;천리안&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n보스와 플레이어 사이의 거리를 알려준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Clairvoyant&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nIndicates the distance between the boss and the player.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:clairvoyant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:volcano</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:volcano</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>볼케이노</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volcano</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;SawBlade&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(revolution)&lt;/size&gt;\n\nadded saw blades that orbit the player.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>톱날</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;톱날&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(공전)&lt;/size&gt;\n\n플레이어 주위를 돌아다니는 톱니가 생긴다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:trident</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:trident</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼지창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trident</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;볼케이노&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,소환)&lt;/size&gt;\n\n일정 범위 안에 적이 있으면 볼케이노를 소환한다.\n&lt;size=85%&gt;(공격속도 매우빠름!)&lt;/size&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Volcano&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,summon)&lt;/size&gt;\n\nIf there are enemies within a certain range, summon a volcano.\n&lt;size=85%&gt;(attack speed very fast!)&lt;/size&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;삼지창&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지,소환)&lt;/size&gt;\n\n일정 범위 안에 적이 있으면 삼지창을 소환한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Trident&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage,summon)&lt;/size&gt;\n\nIf there are enemies within a certain range, summon a Trident.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;신속&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n플레이어의 이동속도를 증가 시킨다.</t>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;신속&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n플레이어의 이동속도를 증가 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:quickness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Quickness&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nIncreases the player's movement speed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quickness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:quickness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>감속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slowdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:slowdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;감속&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n보스의 이동속도를 감소 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Slowdown&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nReduces the boss's movement speed.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:slowdown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:redraw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:redraw2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:redraw3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:redraw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:redraw2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:redraw3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Redraw&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Disposable)&lt;/size&gt;\n\nPay '50' gold and reset the store's inventory.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Redraw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;다시뽑기&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(일회용)&lt;/size&gt;\n\n골드 '50'을 지불하고 상점 목록을 리셋 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;다시뽑기 2&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(일회용)&lt;/size&gt;\n\n골드 지불 없이 상점 목록을 리셋 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;다시뽑기 3&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(일회용)&lt;/size&gt;\n\n골드 '100'을 받고 상점 목록을 리셋 시킨다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Redraw 2&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Disposable)&lt;/size&gt;\n\nReset the store's inventory without paying any gold.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#FFFF32&gt;Redraw 3&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Disposable)&lt;/size&gt;\n\nReceive '100' gold and reset the store's inventory.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다시뽑기 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다시뽑기 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다시뽑기 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Redraw 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Redraw 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:regenerate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:regenerate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;체력 회복&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n10초마다 플레이어의 체력을 회복시킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Regenerate&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nEvery 10 seconds, the player's health regenerates.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력 회복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Regenerate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:explanation:rageexplosion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;분노 폭발&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(범위데미지)&lt;/size&gt;\n\n플레이어 주변에 파장을 일으킵니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Rage Explosion&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Splash Damage)&lt;/size&gt;\n\nCreates a wave around the player.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>game:skill:name:rageexplosion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분노 폭발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rage Explosion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sawblade</t>
+    <t>돼지 100마리 잡기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill 100 Pigs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지 500마리 잡기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill 500 Pigs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 '다시뽑기' 3번구매 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase 3 'Redraw' at the store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Try three times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 '다시뽑기' 10번구매 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점에서 '다시뽑기' 50번구매 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase 10 'Redraw' at the store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase 50 'Redraw' at the store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:achievement:redraw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:achievement:redraw2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:achievement:redraw3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세 번 도전하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세 번 도전하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1331,10 +1397,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1392,19 +1458,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1472,19 +1538,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1492,19 +1558,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1512,19 +1578,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1532,19 +1598,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1552,19 +1618,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1578,13 +1644,13 @@
         <v>26</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1604,7 +1670,7 @@
         <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
@@ -1624,7 +1690,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1638,13 +1704,13 @@
         <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1652,19 +1718,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1672,19 +1738,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1692,19 +1758,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1712,19 +1778,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="66" x14ac:dyDescent="0.3">
@@ -1732,19 +1798,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1752,19 +1818,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1772,19 +1838,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1792,19 +1858,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1812,19 +1878,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1832,19 +1898,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C25" t="s">
         <v>26</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1852,19 +1918,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
@@ -1872,19 +1938,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C27" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1898,13 +1964,13 @@
         <v>28</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1958,13 +2024,13 @@
         <v>53</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1972,19 +2038,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C32" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1992,19 +2058,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2012,19 +2078,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2032,19 +2098,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2052,19 +2118,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2072,19 +2138,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2092,19 +2158,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2112,10 +2178,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C39" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>21</v>
@@ -2124,7 +2190,7 @@
         <v>21</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2132,19 +2198,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C40" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2152,19 +2218,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C41" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2172,19 +2238,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" t="s">
         <v>225</v>
       </c>
-      <c r="C42" t="s">
-        <v>229</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2192,19 +2258,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C43" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2512,19 +2578,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2532,19 +2598,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C60" t="s">
-        <v>158</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2618,13 +2684,13 @@
         <v>79</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>106</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2632,24 +2698,124 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>236</v>
+      </c>
+      <c r="C65" t="s">
+        <v>238</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>106</v>
+      </c>
+      <c r="C67" t="s">
         <v>107</v>
       </c>
-      <c r="C65" t="s">
-        <v>108</v>
-      </c>
-      <c r="D65" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F65" t="s">
-        <v>111</v>
+      <c r="D67" t="s">
+        <v>254</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F67" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>251</v>
+      </c>
+      <c r="C68" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" t="s">
+        <v>247</v>
+      </c>
+      <c r="E69" t="s">
+        <v>247</v>
+      </c>
+      <c r="F69" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>253</v>
+      </c>
+      <c r="C70" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70" t="s">
+        <v>248</v>
+      </c>
+      <c r="E70" t="s">
+        <v>248</v>
+      </c>
+      <c r="F70" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A65">
-    <sortCondition ref="A2:A65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A67">
+    <sortCondition ref="A2:A67"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E087BC5-251A-4ACD-B2EC-B9337AEC2E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0774AB46-CB7A-4B57-BD07-7912CF633D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="266">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1039,6 +1039,46 @@
   </si>
   <si>
     <t>세 번 도전하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:achievement:legend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legend'등급 스킬 10회 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:achievement:legend2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:achievement:legend3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase 'legend' grade skills 10 times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legend'등급 스킬 50회 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase 'legend' grade skills 50 times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legend'등급 스킬 100회 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purchase 'legend' grade skills 100 times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1116,6 +1156,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1397,10 +1441,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2813,6 +2857,66 @@
         <v>250</v>
       </c>
     </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>256</v>
+      </c>
+      <c r="C71" t="s">
+        <v>79</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F71" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>258</v>
+      </c>
+      <c r="C72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F72" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" t="s">
+        <v>265</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F73" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A67">
     <sortCondition ref="A2:A67"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0774AB46-CB7A-4B57-BD07-7912CF633D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C0A00E-8E16-422E-8CE1-158465D8C0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="275">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1079,6 +1079,41 @@
   </si>
   <si>
     <t>업적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:bulkingup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;벌크 업&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n플레이어의 최대 체력을 증가 시킵니다.</t>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;벌크 업&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n플레이어의 최대 체력을 증가 시킵니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Bulking Up&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nIncreases the player's maximum health.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:bulkingup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌크 업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulking Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1441,10 +1476,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1997,24 +2032,24 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>266</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>267</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2022,19 +2057,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2042,19 +2077,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2062,19 +2097,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2082,19 +2117,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>147</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2102,19 +2137,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s">
         <v>144</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2122,19 +2157,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2142,19 +2177,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2162,19 +2197,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2182,19 +2217,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2202,19 +2237,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C38" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2222,19 +2257,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>21</v>
+        <v>194</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2242,19 +2277,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C40" t="s">
         <v>207</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>217</v>
+        <v>21</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2262,19 +2297,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C41" t="s">
         <v>207</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2282,19 +2317,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2302,19 +2337,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C43" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2322,19 +2357,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>34</v>
+        <v>232</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>35</v>
+        <v>233</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2342,19 +2377,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>31</v>
+        <v>272</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>32</v>
+        <v>273</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2362,19 +2397,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2382,19 +2417,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2402,19 +2437,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2422,19 +2457,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2442,19 +2477,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2462,19 +2497,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2482,19 +2517,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2502,19 +2537,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2522,19 +2557,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
         <v>73</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2542,19 +2577,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2562,19 +2597,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2582,19 +2617,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2602,19 +2637,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2622,19 +2657,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2642,19 +2677,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2662,19 +2697,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2682,19 +2717,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2702,19 +2737,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2722,19 +2757,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>240</v>
+        <v>6</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>241</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2742,19 +2777,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>238</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>242</v>
+        <v>6</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>243</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2762,19 +2797,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>237</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>105</v>
+        <v>240</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2782,19 +2817,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>236</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" t="s">
-        <v>254</v>
+        <v>238</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F67" t="s">
-        <v>246</v>
+        <v>242</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2802,19 +2837,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C68" t="s">
         <v>238</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2822,19 +2857,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>252</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D69" t="s">
-        <v>247</v>
-      </c>
-      <c r="E69" t="s">
-        <v>247</v>
+        <v>254</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="F69" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2842,19 +2877,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C70" t="s">
         <v>238</v>
       </c>
-      <c r="D70" t="s">
-        <v>248</v>
-      </c>
-      <c r="E70" t="s">
-        <v>248</v>
-      </c>
-      <c r="F70" t="s">
-        <v>250</v>
+      <c r="D70" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2862,19 +2897,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C71" t="s">
         <v>79</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>257</v>
+      <c r="D71" t="s">
+        <v>247</v>
+      </c>
+      <c r="E71" t="s">
+        <v>247</v>
       </c>
       <c r="F71" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2882,19 +2917,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C72" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>261</v>
+        <v>238</v>
+      </c>
+      <c r="D72" t="s">
+        <v>248</v>
+      </c>
+      <c r="E72" t="s">
+        <v>248</v>
       </c>
       <c r="F72" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2902,24 +2937,64 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>256</v>
+      </c>
+      <c r="C73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F73" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>258</v>
+      </c>
+      <c r="C74" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F74" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
         <v>259</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C75" t="s">
         <v>265</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D75" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F75" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A67">
-    <sortCondition ref="A2:A67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A75">
+    <sortCondition ref="A2:A75"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C0A00E-8E16-422E-8CE1-158465D8C0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB164A-55E5-4243-8E72-CC4FBDA88311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="296">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1114,6 +1114,89 @@
   </si>
   <si>
     <t>Bulking Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;금화상자&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n필드에 '금화상자' 나올확률이 증가합니다.</t>
+  </si>
+  <si>
+    <t>game:skill:explanation:goldchest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:potionchest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;금화상자&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n필드에 '금화상자' 나올확률이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Gold Chest&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nThe probability of 'Gold Chest' appearing in the field increases.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;Potion Chest&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nThe probability of 'Potion Chest' appearing in the field increases.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:explanation:regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:goldchest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:potionchest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:skill:name:regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금화상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션상자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potion Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단골</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#E7E7E7&gt;포션상자&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n필드에 '포션상자' 나올 확률이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;단골&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(패시브)&lt;/size&gt;\n\n필드에 '상점' 나올확률이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Regular&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nThe probability of 'Store' appearing in the field increases.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1476,10 +1559,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2052,64 +2135,64 @@
         <v>270</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>46</v>
+        <v>294</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>46</v>
+        <v>294</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>47</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2117,19 +2200,19 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>235</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2137,19 +2220,19 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>147</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2157,19 +2240,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2177,19 +2260,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>158</v>
+        <v>172</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2197,19 +2280,19 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>170</v>
+        <v>145</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2217,19 +2300,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>179</v>
+        <v>149</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2237,19 +2320,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2257,19 +2340,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2277,19 +2360,19 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="C40" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2297,19 +2380,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2317,19 +2400,19 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2337,19 +2420,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C43" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>226</v>
+        <v>21</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2357,19 +2440,19 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C44" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2377,19 +2460,19 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="C45" t="s">
-        <v>272</v>
+        <v>207</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2397,19 +2480,19 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>34</v>
+        <v>225</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>35</v>
+        <v>226</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2417,19 +2500,19 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>231</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>31</v>
+        <v>232</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>32</v>
+        <v>233</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2437,19 +2520,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>271</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>58</v>
+        <v>272</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>59</v>
+        <v>273</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2457,19 +2540,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>283</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>70</v>
+        <v>286</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>71</v>
+        <v>287</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2477,19 +2560,19 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>64</v>
+        <v>286</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>61</v>
+        <v>289</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2497,19 +2580,19 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>285</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>65</v>
+        <v>286</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>63</v>
+        <v>291</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2517,19 +2600,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
         <v>30</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2537,19 +2620,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2557,19 +2640,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2577,19 +2660,19 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2597,19 +2680,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2617,19 +2700,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2637,19 +2720,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2657,19 +2740,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2677,19 +2760,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2697,19 +2780,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2717,19 +2800,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>73</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>155</v>
+        <v>82</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2737,19 +2820,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2757,19 +2840,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2777,19 +2860,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2797,19 +2880,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>240</v>
+        <v>30</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>240</v>
+        <v>102</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>241</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2817,19 +2900,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="C67" t="s">
-        <v>238</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>242</v>
+        <v>30</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>243</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2837,19 +2920,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>237</v>
+        <v>153</v>
       </c>
       <c r="C68" t="s">
-        <v>238</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>105</v>
+        <v>154</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>239</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2857,19 +2940,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>107</v>
-      </c>
-      <c r="D69" t="s">
-        <v>254</v>
+        <v>6</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F69" t="s">
-        <v>246</v>
+        <v>7</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2877,19 +2960,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="C70" t="s">
-        <v>238</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>244</v>
+        <v>6</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>245</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2897,19 +2980,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>252</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D71" t="s">
-        <v>247</v>
-      </c>
-      <c r="E71" t="s">
-        <v>247</v>
-      </c>
-      <c r="F71" t="s">
-        <v>249</v>
+        <v>6</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2917,19 +3000,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>253</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>238</v>
-      </c>
-      <c r="D72" t="s">
-        <v>248</v>
-      </c>
-      <c r="E72" t="s">
-        <v>248</v>
-      </c>
-      <c r="F72" t="s">
-        <v>250</v>
+        <v>79</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2937,19 +3020,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="F73" t="s">
-        <v>260</v>
+        <v>238</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2957,19 +3040,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F74" t="s">
-        <v>262</v>
+        <v>238</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2977,24 +3060,144 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D75" t="s">
+        <v>254</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F75" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" t="s">
+        <v>238</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" t="s">
+        <v>247</v>
+      </c>
+      <c r="E77" t="s">
+        <v>247</v>
+      </c>
+      <c r="F77" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>253</v>
+      </c>
+      <c r="C78" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" t="s">
+        <v>248</v>
+      </c>
+      <c r="E78" t="s">
+        <v>248</v>
+      </c>
+      <c r="F78" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>256</v>
+      </c>
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F79" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>258</v>
+      </c>
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
         <v>259</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C81" t="s">
         <v>265</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D81" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F81" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A75">
-    <sortCondition ref="A2:A75"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A81">
+    <sortCondition ref="A2:A81"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EB164A-55E5-4243-8E72-CC4FBDA88311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FB2989-81FF-450C-A616-C83E43D09775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="300">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1197,6 +1197,22 @@
   </si>
   <si>
     <t>&lt;size=120%&gt;&lt;#32FFC8&gt;Regular&lt;/color&gt;&lt;/size&gt;\n&lt;size=70%&gt;(Passive)&lt;/size&gt;\n\nThe probability of 'Store' appearing in the field increases.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:ui:kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kill    :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽인 몬스터    :</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1559,10 +1575,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2680,19 +2696,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>296</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>64</v>
+        <v>299</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>64</v>
+        <v>299</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>61</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2700,19 +2716,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
         <v>30</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2720,19 +2736,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2740,19 +2756,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2760,19 +2776,19 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
         <v>73</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2780,19 +2796,19 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2800,19 +2816,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
         <v>73</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2820,19 +2836,19 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2840,19 +2856,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2860,19 +2876,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2880,19 +2896,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2900,19 +2916,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C67" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2920,19 +2936,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2940,19 +2956,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>7</v>
+        <v>155</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>8</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2960,19 +2976,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2980,19 +2996,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3000,19 +3016,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="C72" t="s">
-        <v>79</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>240</v>
+        <v>6</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3020,19 +3036,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3040,19 +3056,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C74" t="s">
         <v>238</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3060,19 +3076,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
-      </c>
-      <c r="D75" t="s">
-        <v>254</v>
+        <v>238</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F75" t="s">
-        <v>246</v>
+        <v>105</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3080,19 +3096,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="C76" t="s">
-        <v>238</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>244</v>
+        <v>107</v>
+      </c>
+      <c r="D76" t="s">
+        <v>254</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
+      </c>
+      <c r="F76" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3100,19 +3116,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
-      </c>
-      <c r="D77" t="s">
-        <v>247</v>
-      </c>
-      <c r="E77" t="s">
-        <v>247</v>
-      </c>
-      <c r="F77" t="s">
-        <v>249</v>
+        <v>238</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3120,19 +3136,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="D78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F78" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3140,19 +3156,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>257</v>
+        <v>238</v>
+      </c>
+      <c r="D79" t="s">
+        <v>248</v>
+      </c>
+      <c r="E79" t="s">
+        <v>248</v>
       </c>
       <c r="F79" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3160,19 +3176,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C80" t="s">
         <v>79</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="F80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3180,24 +3196,44 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
+        <v>258</v>
+      </c>
+      <c r="C81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F81" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
         <v>259</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C82" t="s">
         <v>265</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E82" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A81">
-    <sortCondition ref="A2:A81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A82">
+    <sortCondition ref="A2:A82"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FB2989-81FF-450C-A616-C83E43D09775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9A2679-0D3D-4A95-BF84-E1888DE7A2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="304">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1213,6 +1213,22 @@
   </si>
   <si>
     <t>죽인 몬스터    :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 공격스킬은 최대 4개까지 선택 가능합니다.\n※ 아이템 등급은 &lt;#E7E7E7&gt;'노말'&lt;/color&gt;, &lt;#32FFC8&gt;'레어'&lt;/color&gt;, &lt;#FFFF32&gt;'전설'&lt;/color&gt; 이 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ The maximum number of selectable attack skills is four.\n※ The item grades are &lt;#E7E7E7&gt;'Normal'&lt;/color&gt;, &lt;#32FFC8&gt;'Rare'&lt;/color&gt;, and &lt;#FFFF32&gt;'Legendary'&lt;/color&gt;.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1575,10 +1591,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2971,24 +2987,24 @@
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>302</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>303</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>8</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2996,19 +3012,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -3016,19 +3032,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -3036,19 +3052,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>240</v>
+        <v>6</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3056,19 +3072,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>236</v>
+        <v>104</v>
       </c>
       <c r="C74" t="s">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3076,19 +3092,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C75" t="s">
         <v>238</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>105</v>
+        <v>242</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3096,19 +3112,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="C76" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" t="s">
-        <v>254</v>
+        <v>238</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F76" t="s">
-        <v>246</v>
+        <v>105</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3116,19 +3132,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="C77" t="s">
-        <v>238</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>244</v>
+        <v>107</v>
+      </c>
+      <c r="D77" t="s">
+        <v>254</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
+      </c>
+      <c r="F77" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3136,19 +3152,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" t="s">
-        <v>247</v>
-      </c>
-      <c r="E78" t="s">
-        <v>247</v>
-      </c>
-      <c r="F78" t="s">
-        <v>249</v>
+        <v>238</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3156,19 +3172,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C79" t="s">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="D79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3176,19 +3192,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>257</v>
+        <v>238</v>
+      </c>
+      <c r="D80" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" t="s">
+        <v>248</v>
       </c>
       <c r="F80" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3196,19 +3212,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C81" t="s">
         <v>79</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>257</v>
       </c>
       <c r="F81" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3216,24 +3232,44 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
+        <v>258</v>
+      </c>
+      <c r="C82" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F82" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
         <v>259</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>265</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E83" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A82">
-    <sortCondition ref="A2:A82"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A83">
+    <sortCondition ref="A2:A83"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9A2679-0D3D-4A95-BF84-E1888DE7A2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04B4F63-A7FA-42DE-96A3-3981C541A641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="318">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1229,6 +1229,264 @@
   </si>
   <si>
     <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:stage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ Entry is only possible after clearing Stage 1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ Stage1 클리어 후 입장 가능합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">※ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Stage1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클리어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:stage3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:stage4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:main:stage5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 준비중 입니다.</t>
+  </si>
+  <si>
+    <t>※ 준비중 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>준비중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>※ Under preparation.</t>
+  </si>
+  <si>
+    <t>※ Under preparation.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1236,7 +1494,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1273,6 +1531,40 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343541"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343541"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343541"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343541"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343541"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1294,7 +1586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1310,6 +1602,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1591,10 +1885,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3007,84 +3301,84 @@
         <v>301</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>304</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>305</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>7</v>
+        <v>307</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>309</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>86</v>
+        <v>313</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>310</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>312</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>240</v>
+        <v>30</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>241</v>
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3092,19 +3386,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>238</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>242</v>
+        <v>6</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>242</v>
+        <v>7</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>243</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3112,19 +3406,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>237</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>238</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>105</v>
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>239</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3132,19 +3426,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77" t="s">
-        <v>254</v>
+        <v>6</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F77" t="s">
-        <v>246</v>
+        <v>11</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3152,19 +3446,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>79</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3172,19 +3466,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C79" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" t="s">
-        <v>247</v>
-      </c>
-      <c r="E79" t="s">
-        <v>247</v>
-      </c>
-      <c r="F79" t="s">
-        <v>249</v>
+        <v>238</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3192,19 +3486,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C80" t="s">
         <v>238</v>
       </c>
-      <c r="D80" t="s">
-        <v>248</v>
-      </c>
-      <c r="E80" t="s">
-        <v>248</v>
-      </c>
-      <c r="F80" t="s">
-        <v>250</v>
+      <c r="D80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3212,19 +3506,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>257</v>
+        <v>107</v>
+      </c>
+      <c r="D81" t="s">
+        <v>254</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="F81" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3232,19 +3526,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C82" t="s">
-        <v>79</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F82" t="s">
-        <v>262</v>
+        <v>238</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3252,24 +3546,104 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
+        <v>252</v>
+      </c>
+      <c r="C83" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" t="s">
+        <v>247</v>
+      </c>
+      <c r="E83" t="s">
+        <v>247</v>
+      </c>
+      <c r="F83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>253</v>
+      </c>
+      <c r="C84" t="s">
+        <v>238</v>
+      </c>
+      <c r="D84" t="s">
+        <v>248</v>
+      </c>
+      <c r="E84" t="s">
+        <v>248</v>
+      </c>
+      <c r="F84" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>256</v>
+      </c>
+      <c r="C85" t="s">
+        <v>79</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F85" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>258</v>
+      </c>
+      <c r="C86" t="s">
+        <v>79</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F86" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
         <v>259</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C87" t="s">
         <v>265</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D87" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F87" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A83">
-    <sortCondition ref="A2:A83"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A87">
+    <sortCondition ref="A2:A87"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04B4F63-A7FA-42DE-96A3-3981C541A641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA474873-9791-4E75-951C-AE74DE45D730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1887,8 +1887,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA474873-9791-4E75-951C-AE74DE45D730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745C08BA-6EB5-40C5-A4A7-C4547B78D5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="329">
   <si>
     <t>sTextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1489,12 +1489,184 @@
     <t>※ Under preparation.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>유아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saved file</t>
+  </si>
+  <si>
+    <t>game:start:save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:start:savequestion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Would you like to delete the saved file and start anew?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장된 파일을 지우고 새로 시작하시겠습니까?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지우고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시작하시겠습니까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empty (New)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비어있음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로 시작</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF343541"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>game:start:empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1565,6 +1737,19 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343541"/>
+      <name val="Segoe UI"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1586,7 +1771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1604,6 +1789,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1885,10 +2073,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3386,59 +3574,59 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>321</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>318</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>7</v>
+        <v>319</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>322</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>86</v>
+        <v>30</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>325</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>328</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>84</v>
+        <v>30</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3446,19 +3634,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>240</v>
+        <v>6</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>240</v>
+        <v>7</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>241</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -3466,19 +3654,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>238</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>242</v>
+        <v>6</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3486,19 +3674,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>238</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>105</v>
+        <v>6</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>239</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3506,19 +3694,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C81" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" t="s">
-        <v>254</v>
+        <v>79</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="F81" t="s">
-        <v>246</v>
+        <v>240</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -3526,19 +3714,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C82" t="s">
         <v>238</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -3546,19 +3734,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C83" t="s">
-        <v>79</v>
-      </c>
-      <c r="D83" t="s">
-        <v>247</v>
-      </c>
-      <c r="E83" t="s">
-        <v>247</v>
-      </c>
-      <c r="F83" t="s">
-        <v>249</v>
+        <v>238</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3566,19 +3754,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>253</v>
+        <v>106</v>
       </c>
       <c r="C84" t="s">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
-        <v>248</v>
-      </c>
-      <c r="E84" t="s">
-        <v>248</v>
+        <v>254</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="F84" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -3586,19 +3774,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C85" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="F85" t="s">
-        <v>260</v>
+        <v>238</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3606,19 +3794,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C86" t="s">
         <v>79</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>261</v>
+      <c r="D86" t="s">
+        <v>247</v>
+      </c>
+      <c r="E86" t="s">
+        <v>247</v>
       </c>
       <c r="F86" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3626,24 +3814,84 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" t="s">
+        <v>248</v>
+      </c>
+      <c r="E87" t="s">
+        <v>248</v>
+      </c>
+      <c r="F87" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>258</v>
+      </c>
+      <c r="C89" t="s">
+        <v>79</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F89" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
         <v>259</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C90" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D90" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E90" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F90" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A87">
-    <sortCondition ref="A2:A87"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A90">
+    <sortCondition ref="A2:A90"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/TextDB.xlsx
+++ b/DataBase/TextDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sang\Project02_2\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745C08BA-6EB5-40C5-A4A7-C4547B78D5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2E2313-59A5-41E6-A14C-D258AD873ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2075,8 +2075,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
